--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl17-Gpr35.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl17-Gpr35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.644458</v>
+        <v>0.1610833333333333</v>
       </c>
       <c r="H2">
-        <v>1.933374</v>
+        <v>0.48325</v>
       </c>
       <c r="I2">
-        <v>0.4891974816643364</v>
+        <v>0.1365958422289049</v>
       </c>
       <c r="J2">
-        <v>0.4891974816643362</v>
+        <v>0.136595842228905</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.5631240000000001</v>
+        <v>0.06129166666666667</v>
       </c>
       <c r="N2">
-        <v>1.689372</v>
+        <v>0.183875</v>
       </c>
       <c r="O2">
-        <v>0.008460536075842478</v>
+        <v>0.0007458010972343367</v>
       </c>
       <c r="P2">
-        <v>0.008460536075842476</v>
+        <v>0.0007458010972343368</v>
       </c>
       <c r="Q2">
-        <v>0.362909766792</v>
+        <v>0.009873065972222221</v>
       </c>
       <c r="R2">
-        <v>3.266187901128</v>
+        <v>0.08885759375000001</v>
       </c>
       <c r="S2">
-        <v>0.004138872941832406</v>
+        <v>0.0001018733290119657</v>
       </c>
       <c r="T2">
-        <v>0.004138872941832405</v>
+        <v>0.0001018733290119657</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.644458</v>
+        <v>0.1610833333333333</v>
       </c>
       <c r="H3">
-        <v>1.933374</v>
+        <v>0.48325</v>
       </c>
       <c r="I3">
-        <v>0.4891974816643364</v>
+        <v>0.1365958422289049</v>
       </c>
       <c r="J3">
-        <v>0.4891974816643362</v>
+        <v>0.136595842228905</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>24.75083866666667</v>
+        <v>0.5631240000000001</v>
       </c>
       <c r="N3">
-        <v>74.252516</v>
+        <v>1.689372</v>
       </c>
       <c r="O3">
-        <v>0.3718636809063194</v>
+        <v>0.006852130475795873</v>
       </c>
       <c r="P3">
-        <v>0.3718636809063194</v>
+        <v>0.006852130475795872</v>
       </c>
       <c r="Q3">
-        <v>15.95087598544267</v>
+        <v>0.09070989100000001</v>
       </c>
       <c r="R3">
-        <v>143.557883868984</v>
+        <v>0.816389019</v>
       </c>
       <c r="S3">
-        <v>0.1819147762218018</v>
+        <v>0.0009359725334036845</v>
       </c>
       <c r="T3">
-        <v>0.1819147762218018</v>
+        <v>0.0009359725334036845</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.644458</v>
+        <v>0.1610833333333333</v>
       </c>
       <c r="H4">
-        <v>1.933374</v>
+        <v>0.48325</v>
       </c>
       <c r="I4">
-        <v>0.4891974816643364</v>
+        <v>0.1365958422289049</v>
       </c>
       <c r="J4">
-        <v>0.4891974816643362</v>
+        <v>0.136595842228905</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.033179</v>
+        <v>58.55057533333333</v>
       </c>
       <c r="N4">
-        <v>0.099537</v>
+        <v>175.651726</v>
       </c>
       <c r="O4">
-        <v>0.0004984907879265979</v>
+        <v>0.7124473146534607</v>
       </c>
       <c r="P4">
-        <v>0.0004984907879265979</v>
+        <v>0.7124473146534607</v>
       </c>
       <c r="Q4">
-        <v>0.021382471982</v>
+        <v>9.431521843277778</v>
       </c>
       <c r="R4">
-        <v>0.192442247838</v>
+        <v>84.8836965895</v>
       </c>
       <c r="S4">
-        <v>0.0002438604380865624</v>
+        <v>0.09731734098881112</v>
       </c>
       <c r="T4">
-        <v>0.0002438604380865624</v>
+        <v>0.09731734098881113</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.644458</v>
+        <v>0.1610833333333333</v>
       </c>
       <c r="H5">
-        <v>1.933374</v>
+        <v>0.48325</v>
       </c>
       <c r="I5">
-        <v>0.4891974816643364</v>
+        <v>0.1365958422289049</v>
       </c>
       <c r="J5">
-        <v>0.4891974816643362</v>
+        <v>0.136595842228905</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.21176133333334</v>
+        <v>0.5186756666666666</v>
       </c>
       <c r="N5">
-        <v>123.635284</v>
+        <v>1.556027</v>
       </c>
       <c r="O5">
-        <v>0.6191772922299115</v>
+        <v>0.006311280184507156</v>
       </c>
       <c r="P5">
-        <v>0.6191772922299115</v>
+        <v>0.006311280184507156</v>
       </c>
       <c r="Q5">
-        <v>26.55924928535733</v>
+        <v>0.08355000530555555</v>
       </c>
       <c r="R5">
-        <v>239.033243568216</v>
+        <v>0.7519500477500001</v>
       </c>
       <c r="S5">
-        <v>0.3028999720626155</v>
+        <v>0.0008620946323453536</v>
       </c>
       <c r="T5">
-        <v>0.3028999720626155</v>
+        <v>0.0008620946323453537</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4245816666666666</v>
+        <v>0.1610833333333333</v>
       </c>
       <c r="H6">
-        <v>1.273745</v>
+        <v>0.48325</v>
       </c>
       <c r="I6">
-        <v>0.3222929688112802</v>
+        <v>0.1365958422289049</v>
       </c>
       <c r="J6">
-        <v>0.3222929688112802</v>
+        <v>0.136595842228905</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5631240000000001</v>
+        <v>22.48865633333333</v>
       </c>
       <c r="N6">
-        <v>1.689372</v>
+        <v>67.465969</v>
       </c>
       <c r="O6">
-        <v>0.008460536075842478</v>
+        <v>0.273643473589002</v>
       </c>
       <c r="P6">
-        <v>0.008460536075842476</v>
+        <v>0.273643473589002</v>
       </c>
       <c r="Q6">
-        <v>0.23909212646</v>
+        <v>3.622547724361111</v>
       </c>
       <c r="R6">
-        <v>2.15182913814</v>
+        <v>32.60292951925</v>
       </c>
       <c r="S6">
-        <v>0.002726771289618211</v>
+        <v>0.03737856074533284</v>
       </c>
       <c r="T6">
-        <v>0.00272677128961821</v>
+        <v>0.03737856074533285</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>1.273745</v>
       </c>
       <c r="I7">
-        <v>0.3222929688112802</v>
+        <v>0.36003780871155</v>
       </c>
       <c r="J7">
-        <v>0.3222929688112802</v>
+        <v>0.36003780871155</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>24.75083866666667</v>
+        <v>0.06129166666666667</v>
       </c>
       <c r="N7">
-        <v>74.252516</v>
+        <v>0.183875</v>
       </c>
       <c r="O7">
-        <v>0.3718636809063194</v>
+        <v>0.0007458010972343367</v>
       </c>
       <c r="P7">
-        <v>0.3718636809063194</v>
+        <v>0.0007458010972343368</v>
       </c>
       <c r="Q7">
-        <v>10.50875233249111</v>
+        <v>0.02602331798611111</v>
       </c>
       <c r="R7">
-        <v>94.57877099241999</v>
+        <v>0.234209861875</v>
       </c>
       <c r="S7">
-        <v>0.1198490497123883</v>
+        <v>0.0002685165927829202</v>
       </c>
       <c r="T7">
-        <v>0.1198490497123882</v>
+        <v>0.0002685165927829202</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>1.273745</v>
       </c>
       <c r="I8">
-        <v>0.3222929688112802</v>
+        <v>0.36003780871155</v>
       </c>
       <c r="J8">
-        <v>0.3222929688112802</v>
+        <v>0.36003780871155</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,28 +930,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.033179</v>
+        <v>0.5631240000000001</v>
       </c>
       <c r="N8">
-        <v>0.099537</v>
+        <v>1.689372</v>
       </c>
       <c r="O8">
-        <v>0.0004984907879265979</v>
+        <v>0.006852130475795873</v>
       </c>
       <c r="P8">
-        <v>0.0004984907879265979</v>
+        <v>0.006852130475795872</v>
       </c>
       <c r="Q8">
-        <v>0.01408719511833333</v>
+        <v>0.23909212646</v>
       </c>
       <c r="R8">
-        <v>0.126784756065</v>
+        <v>2.15182913814</v>
       </c>
       <c r="S8">
-        <v>0.0001606600759659375</v>
+        <v>0.002467026041511177</v>
       </c>
       <c r="T8">
-        <v>0.0001606600759659375</v>
+        <v>0.002467026041511176</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>1.273745</v>
       </c>
       <c r="I9">
-        <v>0.3222929688112802</v>
+        <v>0.36003780871155</v>
       </c>
       <c r="J9">
-        <v>0.3222929688112802</v>
+        <v>0.36003780871155</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>41.21176133333334</v>
+        <v>58.55057533333333</v>
       </c>
       <c r="N9">
-        <v>123.635284</v>
+        <v>175.651726</v>
       </c>
       <c r="O9">
-        <v>0.6191772922299115</v>
+        <v>0.7124473146534607</v>
       </c>
       <c r="P9">
-        <v>0.6191772922299115</v>
+        <v>0.7124473146534607</v>
       </c>
       <c r="Q9">
-        <v>17.49775831317556</v>
+        <v>24.85950085931889</v>
       </c>
       <c r="R9">
-        <v>157.47982481858</v>
+        <v>223.73550773387</v>
       </c>
       <c r="S9">
-        <v>0.1995564877333078</v>
+        <v>0.2565079699902602</v>
       </c>
       <c r="T9">
-        <v>0.1995564877333078</v>
+        <v>0.2565079699902602</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1081373333333333</v>
+        <v>0.4245816666666666</v>
       </c>
       <c r="H10">
-        <v>0.324412</v>
+        <v>1.273745</v>
       </c>
       <c r="I10">
-        <v>0.08208527342443352</v>
+        <v>0.36003780871155</v>
       </c>
       <c r="J10">
-        <v>0.08208527342443349</v>
+        <v>0.36003780871155</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5631240000000001</v>
+        <v>0.5186756666666666</v>
       </c>
       <c r="N10">
-        <v>1.689372</v>
+        <v>1.556027</v>
       </c>
       <c r="O10">
-        <v>0.008460536075842478</v>
+        <v>0.006311280184507156</v>
       </c>
       <c r="P10">
-        <v>0.008460536075842476</v>
+        <v>0.006311280184507156</v>
       </c>
       <c r="Q10">
-        <v>0.06089472769600002</v>
+        <v>0.2202201790127777</v>
       </c>
       <c r="R10">
-        <v>0.548052549264</v>
+        <v>1.981981611115</v>
       </c>
       <c r="S10">
-        <v>0.0006944854171028136</v>
+        <v>0.002272299487794584</v>
       </c>
       <c r="T10">
-        <v>0.0006944854171028131</v>
+        <v>0.002272299487794584</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1081373333333333</v>
+        <v>0.4245816666666666</v>
       </c>
       <c r="H11">
-        <v>0.324412</v>
+        <v>1.273745</v>
       </c>
       <c r="I11">
-        <v>0.08208527342443352</v>
+        <v>0.36003780871155</v>
       </c>
       <c r="J11">
-        <v>0.08208527342443349</v>
+        <v>0.36003780871155</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.75083866666667</v>
+        <v>22.48865633333333</v>
       </c>
       <c r="N11">
-        <v>74.252516</v>
+        <v>67.465969</v>
       </c>
       <c r="O11">
-        <v>0.3718636809063194</v>
+        <v>0.273643473589002</v>
       </c>
       <c r="P11">
-        <v>0.3718636809063194</v>
+        <v>0.273643473589002</v>
       </c>
       <c r="Q11">
-        <v>2.676489691176889</v>
+        <v>9.548271187100555</v>
       </c>
       <c r="R11">
-        <v>24.088407220592</v>
+        <v>85.934440683905</v>
       </c>
       <c r="S11">
-        <v>0.03052453192381153</v>
+        <v>0.0985219965992012</v>
       </c>
       <c r="T11">
-        <v>0.03052453192381151</v>
+        <v>0.0985219965992012</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,25 +1151,25 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1081373333333333</v>
+        <v>0.2385066666666667</v>
       </c>
       <c r="H12">
-        <v>0.324412</v>
+        <v>0.71552</v>
       </c>
       <c r="I12">
-        <v>0.08208527342443352</v>
+        <v>0.2022494713535977</v>
       </c>
       <c r="J12">
-        <v>0.08208527342443349</v>
+        <v>0.2022494713535977</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1178,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.033179</v>
+        <v>0.06129166666666667</v>
       </c>
       <c r="N12">
-        <v>0.099537</v>
+        <v>0.183875</v>
       </c>
       <c r="O12">
-        <v>0.0004984907879265979</v>
+        <v>0.0007458010972343367</v>
       </c>
       <c r="P12">
-        <v>0.0004984907879265979</v>
+        <v>0.0007458010972343368</v>
       </c>
       <c r="Q12">
-        <v>0.003587888582666667</v>
+        <v>0.01461847111111111</v>
       </c>
       <c r="R12">
-        <v>0.032290997244</v>
+        <v>0.13156624</v>
       </c>
       <c r="S12">
-        <v>4.091875262651609E-05</v>
+        <v>0.0001508378776505777</v>
       </c>
       <c r="T12">
-        <v>4.091875262651607E-05</v>
+        <v>0.0001508378776505777</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1081373333333333</v>
+        <v>0.2385066666666667</v>
       </c>
       <c r="H13">
-        <v>0.324412</v>
+        <v>0.71552</v>
       </c>
       <c r="I13">
-        <v>0.08208527342443352</v>
+        <v>0.2022494713535977</v>
       </c>
       <c r="J13">
-        <v>0.08208527342443349</v>
+        <v>0.2022494713535977</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>41.21176133333334</v>
+        <v>0.5631240000000001</v>
       </c>
       <c r="N13">
-        <v>123.635284</v>
+        <v>1.689372</v>
       </c>
       <c r="O13">
-        <v>0.6191772922299115</v>
+        <v>0.006852130475795873</v>
       </c>
       <c r="P13">
-        <v>0.6191772922299115</v>
+        <v>0.006852130475795872</v>
       </c>
       <c r="Q13">
-        <v>4.456529972556445</v>
+        <v>0.13430882816</v>
       </c>
       <c r="R13">
-        <v>40.108769753008</v>
+        <v>1.20877945344</v>
       </c>
       <c r="S13">
-        <v>0.05082533733089266</v>
+        <v>0.001385839766375591</v>
       </c>
       <c r="T13">
-        <v>0.05082533733089264</v>
+        <v>0.001385839766375591</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,87 +1275,87 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.065041</v>
+        <v>0.2385066666666667</v>
       </c>
       <c r="H14">
-        <v>0.195123</v>
+        <v>0.71552</v>
       </c>
       <c r="I14">
-        <v>0.04937155470943041</v>
+        <v>0.2022494713535977</v>
       </c>
       <c r="J14">
-        <v>0.0493715547094304</v>
+        <v>0.2022494713535977</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.5631240000000001</v>
+        <v>58.55057533333333</v>
       </c>
       <c r="N14">
-        <v>1.689372</v>
+        <v>175.651726</v>
       </c>
       <c r="O14">
-        <v>0.008460536075842478</v>
+        <v>0.7124473146534607</v>
       </c>
       <c r="P14">
-        <v>0.008460536075842476</v>
+        <v>0.7124473146534607</v>
       </c>
       <c r="Q14">
-        <v>0.03662614808400001</v>
+        <v>13.96470255416889</v>
       </c>
       <c r="R14">
-        <v>0.329635332756</v>
+        <v>125.68232298752</v>
       </c>
       <c r="S14">
-        <v>0.0004177098197395665</v>
+        <v>0.1440920927559527</v>
       </c>
       <c r="T14">
-        <v>0.0004177098197395664</v>
+        <v>0.1440920927559527</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.065041</v>
+        <v>0.2385066666666667</v>
       </c>
       <c r="H15">
-        <v>0.195123</v>
+        <v>0.71552</v>
       </c>
       <c r="I15">
-        <v>0.04937155470943041</v>
+        <v>0.2022494713535977</v>
       </c>
       <c r="J15">
-        <v>0.0493715547094304</v>
+        <v>0.2022494713535977</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>24.75083866666667</v>
+        <v>0.5186756666666666</v>
       </c>
       <c r="N15">
-        <v>74.252516</v>
+        <v>1.556027</v>
       </c>
       <c r="O15">
-        <v>0.3718636809063194</v>
+        <v>0.006311280184507156</v>
       </c>
       <c r="P15">
-        <v>0.3718636809063194</v>
+        <v>0.006311280184507156</v>
       </c>
       <c r="Q15">
-        <v>1.609819297718667</v>
+        <v>0.1237076043377778</v>
       </c>
       <c r="R15">
-        <v>14.488373679468</v>
+        <v>1.11336843904</v>
       </c>
       <c r="S15">
-        <v>0.01835948806631652</v>
+        <v>0.001276453080881009</v>
       </c>
       <c r="T15">
-        <v>0.01835948806631652</v>
+        <v>0.001276453080881009</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.065041</v>
+        <v>0.2385066666666667</v>
       </c>
       <c r="H16">
-        <v>0.195123</v>
+        <v>0.71552</v>
       </c>
       <c r="I16">
-        <v>0.04937155470943041</v>
+        <v>0.2022494713535977</v>
       </c>
       <c r="J16">
-        <v>0.0493715547094304</v>
+        <v>0.2022494713535977</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.033179</v>
+        <v>22.48865633333333</v>
       </c>
       <c r="N16">
-        <v>0.099537</v>
+        <v>67.465969</v>
       </c>
       <c r="O16">
-        <v>0.0004984907879265979</v>
+        <v>0.273643473589002</v>
       </c>
       <c r="P16">
-        <v>0.0004984907879265979</v>
+        <v>0.273643473589002</v>
       </c>
       <c r="Q16">
-        <v>0.002157995339</v>
+        <v>5.363694459875556</v>
       </c>
       <c r="R16">
-        <v>0.019421958051</v>
+        <v>48.27325013888</v>
       </c>
       <c r="S16">
-        <v>2.46112652082651E-05</v>
+        <v>0.05534424787273783</v>
       </c>
       <c r="T16">
-        <v>2.461126520826509E-05</v>
+        <v>0.05534424787273783</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.065041</v>
+        <v>0.1926306666666667</v>
       </c>
       <c r="H17">
-        <v>0.195123</v>
+        <v>0.5778920000000001</v>
       </c>
       <c r="I17">
-        <v>0.04937155470943041</v>
+        <v>0.1633474277441208</v>
       </c>
       <c r="J17">
-        <v>0.0493715547094304</v>
+        <v>0.1633474277441208</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>41.21176133333334</v>
+        <v>0.06129166666666667</v>
       </c>
       <c r="N17">
-        <v>123.635284</v>
+        <v>0.183875</v>
       </c>
       <c r="O17">
-        <v>0.6191772922299115</v>
+        <v>0.0007458010972343367</v>
       </c>
       <c r="P17">
-        <v>0.6191772922299115</v>
+        <v>0.0007458010972343368</v>
       </c>
       <c r="Q17">
-        <v>2.680454168881333</v>
+        <v>0.01180665461111111</v>
       </c>
       <c r="R17">
-        <v>24.124087519932</v>
+        <v>0.1062598915</v>
       </c>
       <c r="S17">
-        <v>0.03056974555816605</v>
+        <v>0.0001218246908419718</v>
       </c>
       <c r="T17">
-        <v>0.03056974555816605</v>
+        <v>0.0001218246908419718</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.07516</v>
+        <v>0.1926306666666667</v>
       </c>
       <c r="H18">
-        <v>0.22548</v>
+        <v>0.5778920000000001</v>
       </c>
       <c r="I18">
-        <v>0.05705272139051967</v>
+        <v>0.1633474277441208</v>
       </c>
       <c r="J18">
-        <v>0.05705272139051966</v>
+        <v>0.1633474277441208</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,27 +1556,27 @@
         <v>1.689372</v>
       </c>
       <c r="O18">
-        <v>0.008460536075842478</v>
+        <v>0.006852130475795873</v>
       </c>
       <c r="P18">
-        <v>0.008460536075842476</v>
+        <v>0.006852130475795872</v>
       </c>
       <c r="Q18">
-        <v>0.04232439984000001</v>
+        <v>0.108474951536</v>
       </c>
       <c r="R18">
-        <v>0.3809195985600001</v>
+        <v>0.9762745638240001</v>
       </c>
       <c r="S18">
-        <v>0.0004826966075494814</v>
+        <v>0.001119277887788354</v>
       </c>
       <c r="T18">
-        <v>0.0004826966075494813</v>
+        <v>0.001119277887788354</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.07516</v>
+        <v>0.1926306666666667</v>
       </c>
       <c r="H19">
-        <v>0.22548</v>
+        <v>0.5778920000000001</v>
       </c>
       <c r="I19">
-        <v>0.05705272139051967</v>
+        <v>0.1633474277441208</v>
       </c>
       <c r="J19">
-        <v>0.05705272139051966</v>
+        <v>0.1633474277441208</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,33 +1612,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>24.75083866666667</v>
+        <v>58.55057533333333</v>
       </c>
       <c r="N19">
-        <v>74.252516</v>
+        <v>175.651726</v>
       </c>
       <c r="O19">
-        <v>0.3718636809063194</v>
+        <v>0.7124473146534607</v>
       </c>
       <c r="P19">
-        <v>0.3718636809063194</v>
+        <v>0.7124473146534607</v>
       </c>
       <c r="Q19">
-        <v>1.860273034186667</v>
+        <v>11.27863636017689</v>
       </c>
       <c r="R19">
-        <v>16.74245730768</v>
+        <v>101.507727241592</v>
       </c>
       <c r="S19">
-        <v>0.02121583498200135</v>
+        <v>0.116376436251849</v>
       </c>
       <c r="T19">
-        <v>0.02121583498200134</v>
+        <v>0.116376436251849</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.07516</v>
+        <v>0.1926306666666667</v>
       </c>
       <c r="H20">
-        <v>0.22548</v>
+        <v>0.5778920000000001</v>
       </c>
       <c r="I20">
-        <v>0.05705272139051967</v>
+        <v>0.1633474277441208</v>
       </c>
       <c r="J20">
-        <v>0.05705272139051966</v>
+        <v>0.1633474277441208</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.033179</v>
+        <v>0.5186756666666666</v>
       </c>
       <c r="N20">
-        <v>0.099537</v>
+        <v>1.556027</v>
       </c>
       <c r="O20">
-        <v>0.0004984907879265979</v>
+        <v>0.006311280184507156</v>
       </c>
       <c r="P20">
-        <v>0.0004984907879265979</v>
+        <v>0.006311280184507156</v>
       </c>
       <c r="Q20">
-        <v>0.00249373364</v>
+        <v>0.0999128394537778</v>
       </c>
       <c r="R20">
-        <v>0.02244360276</v>
+        <v>0.8992155550840002</v>
       </c>
       <c r="S20">
-        <v>2.844025603931681E-05</v>
+        <v>0.001030931383911684</v>
       </c>
       <c r="T20">
-        <v>2.844025603931681E-05</v>
+        <v>0.001030931383911684</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1926306666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.5778920000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.1633474277441208</v>
+      </c>
+      <c r="J21">
+        <v>0.1633474277441208</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>22.48865633333333</v>
+      </c>
+      <c r="N21">
+        <v>67.465969</v>
+      </c>
+      <c r="O21">
+        <v>0.273643473589002</v>
+      </c>
+      <c r="P21">
+        <v>0.273643473589002</v>
+      </c>
+      <c r="Q21">
+        <v>4.332004861927556</v>
+      </c>
+      <c r="R21">
+        <v>38.988043757348</v>
+      </c>
+      <c r="S21">
+        <v>0.04469895752972973</v>
+      </c>
+      <c r="T21">
+        <v>0.04469895752972973</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.1624673333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.487402</v>
+      </c>
+      <c r="I22">
+        <v>0.1377694499618267</v>
+      </c>
+      <c r="J22">
+        <v>0.1377694499618267</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G21">
-        <v>0.07516</v>
-      </c>
-      <c r="H21">
-        <v>0.22548</v>
-      </c>
-      <c r="I21">
-        <v>0.05705272139051967</v>
-      </c>
-      <c r="J21">
-        <v>0.05705272139051966</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>41.21176133333334</v>
-      </c>
-      <c r="N21">
-        <v>123.635284</v>
-      </c>
-      <c r="O21">
-        <v>0.6191772922299115</v>
-      </c>
-      <c r="P21">
-        <v>0.6191772922299115</v>
-      </c>
-      <c r="Q21">
-        <v>3.097475981813334</v>
-      </c>
-      <c r="R21">
-        <v>27.87728383632</v>
-      </c>
-      <c r="S21">
-        <v>0.03532574954492951</v>
-      </c>
-      <c r="T21">
-        <v>0.03532574954492951</v>
+      <c r="M22">
+        <v>0.06129166666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.183875</v>
+      </c>
+      <c r="O22">
+        <v>0.0007458010972343367</v>
+      </c>
+      <c r="P22">
+        <v>0.0007458010972343368</v>
+      </c>
+      <c r="Q22">
+        <v>0.009957893638888889</v>
+      </c>
+      <c r="R22">
+        <v>0.08962104275</v>
+      </c>
+      <c r="S22">
+        <v>0.0001027486069469014</v>
+      </c>
+      <c r="T22">
+        <v>0.0001027486069469014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.1624673333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.487402</v>
+      </c>
+      <c r="I23">
+        <v>0.1377694499618267</v>
+      </c>
+      <c r="J23">
+        <v>0.1377694499618267</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.5631240000000001</v>
+      </c>
+      <c r="N23">
+        <v>1.689372</v>
+      </c>
+      <c r="O23">
+        <v>0.006852130475795873</v>
+      </c>
+      <c r="P23">
+        <v>0.006852130475795872</v>
+      </c>
+      <c r="Q23">
+        <v>0.09148925461600001</v>
+      </c>
+      <c r="R23">
+        <v>0.823403291544</v>
+      </c>
+      <c r="S23">
+        <v>0.000944014246717067</v>
+      </c>
+      <c r="T23">
+        <v>0.0009440142467170669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.1624673333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.487402</v>
+      </c>
+      <c r="I24">
+        <v>0.1377694499618267</v>
+      </c>
+      <c r="J24">
+        <v>0.1377694499618267</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>58.55057533333333</v>
+      </c>
+      <c r="N24">
+        <v>175.651726</v>
+      </c>
+      <c r="O24">
+        <v>0.7124473146534607</v>
+      </c>
+      <c r="P24">
+        <v>0.7124473146534607</v>
+      </c>
+      <c r="Q24">
+        <v>9.512555839539111</v>
+      </c>
+      <c r="R24">
+        <v>85.61300255585199</v>
+      </c>
+      <c r="S24">
+        <v>0.09815347466658772</v>
+      </c>
+      <c r="T24">
+        <v>0.09815347466658772</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.1624673333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.487402</v>
+      </c>
+      <c r="I25">
+        <v>0.1377694499618267</v>
+      </c>
+      <c r="J25">
+        <v>0.1377694499618267</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.5186756666666666</v>
+      </c>
+      <c r="N25">
+        <v>1.556027</v>
+      </c>
+      <c r="O25">
+        <v>0.006311280184507156</v>
+      </c>
+      <c r="P25">
+        <v>0.006311280184507156</v>
+      </c>
+      <c r="Q25">
+        <v>0.08426785242822221</v>
+      </c>
+      <c r="R25">
+        <v>0.758410671854</v>
+      </c>
+      <c r="S25">
+        <v>0.0008695015995745268</v>
+      </c>
+      <c r="T25">
+        <v>0.0008695015995745268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.1624673333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.487402</v>
+      </c>
+      <c r="I26">
+        <v>0.1377694499618267</v>
+      </c>
+      <c r="J26">
+        <v>0.1377694499618267</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>22.48865633333333</v>
+      </c>
+      <c r="N26">
+        <v>67.465969</v>
+      </c>
+      <c r="O26">
+        <v>0.273643473589002</v>
+      </c>
+      <c r="P26">
+        <v>0.273643473589002</v>
+      </c>
+      <c r="Q26">
+        <v>3.653672024726445</v>
+      </c>
+      <c r="R26">
+        <v>32.883048222538</v>
+      </c>
+      <c r="S26">
+        <v>0.03769971084200045</v>
+      </c>
+      <c r="T26">
+        <v>0.03769971084200045</v>
       </c>
     </row>
   </sheetData>
